--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741350.5800252254</v>
+        <v>738651.5279313179</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>187.5255871663198</v>
-      </c>
-      <c r="D2" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>145.198658204325</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.51986023714603</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>40.27514111676885</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V4" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>268.5086175792034</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>19.59374304973018</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>12.12176100286048</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5335673127885</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>66.67494018986476</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>73.89277763194292</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841047</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224385</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0697787646034</v>
       </c>
       <c r="T6" t="n">
         <v>193.3045852332498</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>60.9321835303847</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785072</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>112.5404054555728</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502781</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>199.1500311756599</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595717</v>
+        <v>221.8489350595716</v>
       </c>
       <c r="U7" t="n">
-        <v>217.3664573140061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1187,19 +1187,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.00481691476917</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>77.80510311482294</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146.1087797204719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915345</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.48709939963027</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793278</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740354</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.5795121770523</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.9393756113354</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795608</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326504018</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182078</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>1.594095449511873</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428186</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1343012721621</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>200.2162519639174</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.198064809403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834419</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833862</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>124.5931157466101</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>260.1718776310265</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312946</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="C2" t="n">
         <v>224.5974673148099</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="E2" t="n">
         <v>35.17768229832527</v>
@@ -4331,10 +4331,10 @@
         <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644755</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>603.4370373477792</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487946</v>
+        <v>603.4370373477792</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487946</v>
+        <v>414.0172523312946</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487946</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487946</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312946</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="Y2" t="n">
-        <v>414.0172523312946</v>
+        <v>224.5974673148099</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0474416122419</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>203.0474416122419</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>203.0474416122419</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>43.80998660678642</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>43.80998660678642</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>43.80998660678642</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4416,13 +4416,13 @@
         <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017058</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487946</v>
+        <v>533.4995072678427</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487946</v>
+        <v>344.079722251358</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487946</v>
+        <v>344.079722251358</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.26277863231</v>
+        <v>154.6599372348734</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330559</v>
@@ -4495,43 +4495,43 @@
         <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>465.253018269215</v>
+        <v>447.3950989318184</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638716</v>
+        <v>633.045430226475</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652792</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846269</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846269</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S4" t="n">
-        <v>557.3057129681423</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681423</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681423</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V4" t="n">
-        <v>393.8416170062749</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W4" t="n">
-        <v>204.4218319897903</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X4" t="n">
-        <v>204.4218319897903</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>783.6400292909907</v>
+        <v>1215.547037498885</v>
       </c>
       <c r="C5" t="n">
-        <v>783.6400292909907</v>
+        <v>846.5845205584733</v>
       </c>
       <c r="D5" t="n">
-        <v>783.6400292909907</v>
+        <v>846.5845205584733</v>
       </c>
       <c r="E5" t="n">
-        <v>783.6400292909907</v>
+        <v>460.7962679602291</v>
       </c>
       <c r="F5" t="n">
-        <v>763.8483696447986</v>
+        <v>49.81036317062155</v>
       </c>
       <c r="G5" t="n">
-        <v>347.5637625712021</v>
+        <v>37.56616013742914</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742906</v>
+        <v>37.56616013742914</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742906</v>
+        <v>37.56616013742914</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.6123058620871</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405701</v>
+        <v>308.3091729405707</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714444</v>
+        <v>571.8625535714455</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672671</v>
+        <v>896.7859082672687</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.58067091781</v>
+        <v>1231.580670917812</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379517</v>
+        <v>1534.38261037952</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280666</v>
+        <v>1758.31605928067</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871453</v>
+        <v>1878.308006871457</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871453</v>
+        <v>1878.308006871457</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871453</v>
+        <v>1740.395312616115</v>
       </c>
       <c r="T5" t="n">
-        <v>1878.308006871453</v>
+        <v>1740.395312616115</v>
       </c>
       <c r="U5" t="n">
-        <v>1878.308006871453</v>
+        <v>1486.767863336464</v>
       </c>
       <c r="V5" t="n">
-        <v>1547.245119527882</v>
+        <v>1486.767863336464</v>
       </c>
       <c r="W5" t="n">
-        <v>1547.245119527882</v>
+        <v>1486.767863336464</v>
       </c>
       <c r="X5" t="n">
-        <v>1173.779361266802</v>
+        <v>1486.767863336464</v>
       </c>
       <c r="Y5" t="n">
-        <v>783.6400292909907</v>
+        <v>1486.767863336464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381.7237337588006</v>
+        <v>408.4544457641218</v>
       </c>
       <c r="C6" t="n">
-        <v>314.3753093245938</v>
+        <v>408.4544457641218</v>
       </c>
       <c r="D6" t="n">
-        <v>165.4408996633425</v>
+        <v>333.8152764389269</v>
       </c>
       <c r="E6" t="n">
-        <v>165.4408996633425</v>
+        <v>174.5778214334714</v>
       </c>
       <c r="F6" t="n">
-        <v>165.4408996633425</v>
+        <v>174.5778214334714</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>37.56616013742914</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020062</v>
+        <v>37.56616013742914</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742906</v>
+        <v>37.56616013742914</v>
       </c>
       <c r="J6" t="n">
-        <v>196.0181193845646</v>
+        <v>71.18799439756012</v>
       </c>
       <c r="K6" t="n">
-        <v>351.2056772682095</v>
+        <v>206.8078890800188</v>
       </c>
       <c r="L6" t="n">
-        <v>579.8859033584508</v>
+        <v>435.4881151702606</v>
       </c>
       <c r="M6" t="n">
-        <v>1044.767135059135</v>
+        <v>721.7040210404018</v>
       </c>
       <c r="N6" t="n">
-        <v>1352.966969211398</v>
+        <v>1144.99045435291</v>
       </c>
       <c r="O6" t="n">
-        <v>1612.689810537061</v>
+        <v>1404.713295678574</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.807222027791</v>
+        <v>1593.830707169304</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871453</v>
+        <v>1878.308006871457</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871453</v>
+        <v>1878.308006871457</v>
       </c>
       <c r="S6" t="n">
-        <v>1878.308006871453</v>
+        <v>1736.823381856706</v>
       </c>
       <c r="T6" t="n">
-        <v>1683.050850070191</v>
+        <v>1541.566225055444</v>
       </c>
       <c r="U6" t="n">
-        <v>1454.9403347093</v>
+        <v>1313.455709694553</v>
       </c>
       <c r="V6" t="n">
-        <v>1219.788226477557</v>
+        <v>1078.30360146281</v>
       </c>
       <c r="W6" t="n">
-        <v>965.5508697493553</v>
+        <v>824.0662447346085</v>
       </c>
       <c r="X6" t="n">
-        <v>757.6993695438225</v>
+        <v>616.2147445290757</v>
       </c>
       <c r="Y6" t="n">
-        <v>549.9390707788687</v>
+        <v>408.4544457641218</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.5413632062774</v>
+        <v>320.1795202931874</v>
       </c>
       <c r="C7" t="n">
-        <v>470.5413632062774</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="D7" t="n">
-        <v>470.5413632062774</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="E7" t="n">
-        <v>470.5413632062774</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="F7" t="n">
-        <v>470.5413632062774</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="G7" t="n">
-        <v>302.2947947173078</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="H7" t="n">
         <v>151.2433373652804</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742906</v>
+        <v>37.56616013742914</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256537</v>
+        <v>45.01194249256557</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696024</v>
+        <v>187.0844868696028</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101282</v>
+        <v>424.4148644101289</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467487</v>
+        <v>685.0355944467497</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609254</v>
+        <v>944.8939624609266</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103173</v>
+        <v>1168.898929103174</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890529</v>
+        <v>1337.053193890531</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552808</v>
+        <v>1370.03941055281</v>
       </c>
       <c r="R7" t="n">
-        <v>1370.039410552808</v>
+        <v>1255.760791512125</v>
       </c>
       <c r="S7" t="n">
-        <v>1168.877762900627</v>
+        <v>1054.599143859943</v>
       </c>
       <c r="T7" t="n">
-        <v>944.78792950712</v>
+        <v>830.5093104664365</v>
       </c>
       <c r="U7" t="n">
-        <v>725.2258514121643</v>
+        <v>830.5093104664365</v>
       </c>
       <c r="V7" t="n">
-        <v>470.5413632062774</v>
+        <v>830.5093104664365</v>
       </c>
       <c r="W7" t="n">
-        <v>470.5413632062774</v>
+        <v>830.5093104664365</v>
       </c>
       <c r="X7" t="n">
-        <v>470.5413632062774</v>
+        <v>602.5197595684192</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.5413632062774</v>
+        <v>381.7271804248891</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.635933406614</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.635933406614</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.53079966241</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1649.06504140133</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1606.635933406614</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,34 +4878,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>114.5432626034359</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844859</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159576</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751776</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472123</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8411572468201</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
         <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1138.247878181798</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>848.8307081448374</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>620.8411572468201</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>620.8411572468201</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.062372439461</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.099855499049</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892299</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.5376659159207</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
         <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
@@ -5054,10 +5054,10 @@
         <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.74982946406</v>
@@ -5066,25 +5066,25 @@
         <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345376</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
         <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926741</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>3573.020743926741</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>3220.252088656627</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2846.786330395547</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2456.646998419735</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5106,16 +5106,16 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
         <v>193.8410919870412</v>
@@ -5130,7 +5130,7 @@
         <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
         <v>2000.207762193668</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.8476900120641</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>283.9115070841572</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="D13" t="n">
-        <v>283.9115070841572</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="E13" t="n">
-        <v>283.9115070841572</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>283.9115070841573</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>116.4135238953451</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648143</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742807</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126699</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.695454920812</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.278284883851</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>855.2887339858339</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>634.4961548423038</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449246</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>377.6556127449246</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>230.7656652470143</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>230.7656652470143</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782936</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038323</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580259</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924457</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.20336871857</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681609</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783592</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640062</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491227</v>
+        <v>391.8463960426961</v>
       </c>
       <c r="D22" t="n">
-        <v>634.3345878491227</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>486.4214942667296</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648817</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750799</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072693</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121644</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797744</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,13 +6169,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6230,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121645</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797742</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797742</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.7363435406111</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2321.111451512978</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2101.509986535919</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1812.434759880117</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1557.75027167423</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.333101637269</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1040.343550739252</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1714.661204115532</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1459.976715909645</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1170.559545872684</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>942.5699949746667</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8143,16 +8143,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>153.3759016847017</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>98.86065188594051</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496464</v>
+        <v>15.76852197496441</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>19.76531636483486</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>180.4700260914586</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>116.2490900608539</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>40.0079143643884</v>
+        <v>40.00791436438827</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9556134883076339</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111063</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.6250619430087</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.3302963807273</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>104.4647955668876</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
         <v>90.25352389927376</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811044</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459244</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>4.715200669171537</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.89260457060191</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844822602</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.8269525734194</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294939</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393049</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823068</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0033420516659</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>85.96822242532676</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.63391537253435</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.4331702550345</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>26.01259675821763</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440579</v>
+        <v>384609.3532440577</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372534</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="J2" t="n">
         <v>423751.9648372531</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="L2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="M2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="K2" t="n">
-        <v>423751.964837253</v>
-      </c>
-      <c r="L2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372531</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372531</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912891</v>
+        <v>312214.8578912902</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.499197266</v>
+        <v>175413.4991972648</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
         <v>189308.2687704294</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854458</v>
+        <v>49064.94472854441</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030163</v>
+        <v>72591.00846030189</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925524</v>
+        <v>43280.54279925494</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273061</v>
+        <v>81897.40371273072</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202377</v>
+        <v>49839.57413202369</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057578</v>
+        <v>195152.1081057574</v>
       </c>
       <c r="D4" t="n">
         <v>146359.3674130576</v>
@@ -26430,10 +26430,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685502</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26442,22 +26442,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685507</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.522086383</v>
+        <v>79427.52208638309</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>85137.48506738564</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-495464.9504169165</v>
+        <v>-495464.9504169166</v>
       </c>
       <c r="C6" t="n">
-        <v>-155747.5589046812</v>
+        <v>-155747.5589046822</v>
       </c>
       <c r="D6" t="n">
-        <v>16336.2901285804</v>
+        <v>16336.29012858166</v>
       </c>
       <c r="E6" t="n">
-        <v>-28216.62269511321</v>
+        <v>-28437.75400908822</v>
       </c>
       <c r="F6" t="n">
-        <v>119104.4141660617</v>
+        <v>119069.676240626</v>
       </c>
       <c r="G6" t="n">
-        <v>308412.682936491</v>
+        <v>308377.9450110555</v>
       </c>
       <c r="H6" t="n">
-        <v>308412.6829364912</v>
+        <v>308377.9450110553</v>
       </c>
       <c r="I6" t="n">
-        <v>308412.6829364909</v>
+        <v>308377.9450110554</v>
       </c>
       <c r="J6" t="n">
-        <v>259347.7382079464</v>
+        <v>259313.0002825108</v>
       </c>
       <c r="K6" t="n">
-        <v>235821.6744761892</v>
+        <v>235786.9365507533</v>
       </c>
       <c r="L6" t="n">
-        <v>265132.1401372358</v>
+        <v>265097.4022118003</v>
       </c>
       <c r="M6" t="n">
-        <v>226515.2792237603</v>
+        <v>226480.5412983245</v>
       </c>
       <c r="N6" t="n">
-        <v>258573.1088044672</v>
+        <v>258538.3708790316</v>
       </c>
       <c r="O6" t="n">
-        <v>308412.6829364909</v>
+        <v>308377.9450110552</v>
       </c>
       <c r="P6" t="n">
-        <v>308412.682936491</v>
+        <v>308377.9450110552</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282993</v>
+        <v>791.2679074283002</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26790,22 +26790,22 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178633</v>
+        <v>469.5770017178643</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490087</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153948</v>
+        <v>242.7979665153957</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892399</v>
+        <v>142.7969846892389</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974109</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267238</v>
@@ -27012,16 +27012,16 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515434</v>
+        <v>282.0514145515444</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821757</v>
+        <v>171.0078303821746</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489698</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515434</v>
+        <v>282.0514145515444</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821757</v>
+        <v>171.0078303821746</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506399</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515434</v>
+        <v>282.0514145515444</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821757</v>
+        <v>171.0078303821746</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489698</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.404782905942</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>24.9424541294095</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988697</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871053</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>224.532442474144</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>28.27187229091527</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>72.32189711359368</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550658</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27515,7 +27515,7 @@
         <v>38.33818124377111</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>106.1588215298003</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917642</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378029</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713046</v>
       </c>
       <c r="V4" t="n">
-        <v>90.30818832157931</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577498</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>114.2252240842772</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>387.2823026919813</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094053</v>
+        <v>87.84129258094039</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127886</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>106.033558798451</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>73.55228793269583</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841044</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224378</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>118.8997966515526</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.5409427785071</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>68.87474241224589</v>
+        <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>344.2331217412844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>174.3325402090051</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.923489426098049e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.558273758448195e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274567</v>
+        <v>3.180976512274571</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633192</v>
+        <v>32.57717570633196</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894654</v>
+        <v>122.6345969894655</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586638</v>
+        <v>269.9814052586642</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232463</v>
+        <v>404.6321410232468</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607693</v>
+        <v>501.9819509607698</v>
       </c>
       <c r="M5" t="n">
-        <v>558.551642010932</v>
+        <v>558.5516420109327</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264323</v>
+        <v>567.5895915264329</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325019</v>
+        <v>535.9587563325026</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857235</v>
+        <v>457.428398685724</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398905</v>
+        <v>343.5096773398909</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391675</v>
+        <v>199.8170158391677</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345678</v>
+        <v>72.48650227345686</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248193</v>
+        <v>13.92472468248194</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819654</v>
+        <v>0.2544781209819656</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128795</v>
+        <v>1.701972480128797</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808599</v>
+        <v>16.43747105808601</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917123</v>
+        <v>58.5986138991713</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142736</v>
+        <v>160.7990754142737</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829028</v>
+        <v>274.8312315829031</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437543</v>
+        <v>369.5445071437547</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484231</v>
+        <v>431.2410095484236</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734974</v>
+        <v>442.6546758734979</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138014</v>
+        <v>404.9425488138019</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888047</v>
+        <v>325.0020957888051</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301248</v>
+        <v>217.255294130125</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995756</v>
+        <v>105.6715895995757</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923439</v>
+        <v>31.61339233923443</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571762</v>
+        <v>6.86014346157177</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1119718736926839</v>
+        <v>0.111971873692684</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4268765543789</v>
+        <v>1.426876554378902</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893241</v>
+        <v>12.68622972893243</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168548</v>
+        <v>42.91006947168553</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945882</v>
+        <v>100.8801723945884</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087485</v>
+        <v>165.7771124087487</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210231</v>
+        <v>212.1376288210233</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014125</v>
+        <v>223.6693857014128</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350913</v>
+        <v>218.3510276350916</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589377</v>
+        <v>201.6825151589379</v>
       </c>
       <c r="P7" t="n">
-        <v>172.574233449608</v>
+        <v>172.5742334496082</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216732</v>
+        <v>119.4814540216733</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689126</v>
+        <v>64.15755852689134</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131228</v>
+        <v>24.86656686131231</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709845</v>
+        <v>6.096654368709852</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884919</v>
+        <v>0.07782963023884928</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>267.539807883333</v>
       </c>
       <c r="O12" t="n">
-        <v>210.24053684173</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383444</v>
@@ -32075,31 +32075,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593843</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>650.5350891770654</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34863,16 +34863,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>169.4872848053132</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>100.201009193341</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197753</v>
+        <v>88.93550073197787</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782658</v>
+        <v>184.5422899782662</v>
       </c>
       <c r="L5" t="n">
-        <v>266.215535990782</v>
+        <v>266.2155359907826</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836593</v>
+        <v>328.20540878366</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298414</v>
+        <v>338.1765279298419</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108152</v>
+        <v>305.8605449108159</v>
       </c>
       <c r="P5" t="n">
-        <v>226.195402930454</v>
+        <v>226.1954029304545</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.203987465441</v>
+        <v>121.2039874654414</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>160.0524840880157</v>
+        <v>33.96144874760705</v>
       </c>
       <c r="K6" t="n">
-        <v>156.7551089733786</v>
+        <v>136.9897926085441</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638802</v>
+        <v>230.9901273638806</v>
       </c>
       <c r="M6" t="n">
-        <v>469.5770017178633</v>
+        <v>289.1069756264052</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901641</v>
+        <v>427.5620538510184</v>
       </c>
       <c r="O6" t="n">
-        <v>262.346304369357</v>
+        <v>262.3463043693574</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744745</v>
+        <v>191.0276883744748</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410324</v>
+        <v>287.3508077799526</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915468</v>
+        <v>7.520992277915582</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828657</v>
+        <v>143.5076205828659</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813392</v>
+        <v>239.7276540813395</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632531</v>
+        <v>263.2532626632533</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143199</v>
+        <v>262.4832000143201</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729774</v>
+        <v>226.2676430729776</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145015</v>
+        <v>169.8527927145017</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.3194107699788</v>
+        <v>33.31941076997894</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.93583437922506</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072293</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>136.1980957999997</v>
       </c>
       <c r="O12" t="n">
-        <v>67.64429239728561</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240141</v>
@@ -35723,31 +35723,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795101</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>519.1933770937321</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629515</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010432</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.626132989906</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
